--- a/MyBot/yandex.xlsx
+++ b/MyBot/yandex.xlsx
@@ -13,55 +13,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>8(908)-642-00-01</t>
   </si>
   <si>
+    <t>co75007</t>
+  </si>
+  <si>
     <t>8(908)-642-00-02</t>
   </si>
   <si>
+    <t>co75008</t>
+  </si>
+  <si>
     <t>8(908)-642-00-03</t>
   </si>
   <si>
+    <t>co75009</t>
+  </si>
+  <si>
     <t>8(908)-642-00-04</t>
   </si>
   <si>
+    <t>co75010</t>
+  </si>
+  <si>
     <t>8(908)-642-00-05</t>
   </si>
   <si>
+    <t>co75011</t>
+  </si>
+  <si>
     <t>8(908)-642-00-06</t>
   </si>
   <si>
+    <t>co75012</t>
+  </si>
+  <si>
     <t>8(908)-642-00-07</t>
   </si>
   <si>
+    <t>co75013</t>
+  </si>
+  <si>
     <t>8(908)-642-00-08</t>
   </si>
   <si>
+    <t>co75014</t>
+  </si>
+  <si>
     <t>8(908)-642-00-09</t>
   </si>
   <si>
+    <t>co75015</t>
+  </si>
+  <si>
     <t>8(908)-642-00-10</t>
+  </si>
+  <si>
+    <t>co75016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="10.500000"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="0"/>
+        <bgColor theme="0" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -599,50 +642,80 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="12.75">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="12.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="12.75">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="12.75">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="12.75">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="12.75">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="12.75">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="12.75">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="12.75">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="12.75"/>

--- a/MyBot/yandex.xlsx
+++ b/MyBot/yandex.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Номер пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логин (Аккаунт пользователя на TimeWeb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость тарифа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Последняя дата оплаты</t>
+  </si>
   <si>
     <t>8(908)-642-00-01</t>
   </si>
@@ -79,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.000000"/>
@@ -86,22 +101,17 @@
       <name val="Liberation Sans"/>
     </font>
     <font>
-      <sz val="10.500000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,10 +128,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -635,90 +647,166 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.7109375"/>
+    <col customWidth="1" min="1" max="1" width="27.8515625"/>
+    <col customWidth="1" min="2" max="2" width="45.421875"/>
+    <col customWidth="1" min="3" max="3" width="21.140625"/>
+    <col customWidth="1" min="4" max="4" width="22.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="12.75">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>270</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45361</v>
       </c>
     </row>
     <row r="3" ht="12.75">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>480</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45362</v>
       </c>
     </row>
     <row r="4" ht="12.75">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>690</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45363</v>
       </c>
     </row>
     <row r="5" ht="12.75">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>900</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45364</v>
       </c>
     </row>
     <row r="6" ht="12.75">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1110</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45365</v>
       </c>
     </row>
     <row r="7" ht="12.75">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1320</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45366</v>
       </c>
     </row>
     <row r="8" ht="12.75">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1530</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45367</v>
       </c>
     </row>
     <row r="9" ht="12.75">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1740</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45368</v>
       </c>
     </row>
     <row r="10" ht="12.75">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
+      <c r="A10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1950</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2160</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45370</v>
+      </c>
+    </row>
     <row r="12" ht="12.75"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
